--- a/natmiOut/OldD2/LR-pairs_lrc2p/Bmp2-Rgmb.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Bmp2-Rgmb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Rgmb</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.35766620923001</v>
+        <v>4.501281000000001</v>
       </c>
       <c r="H2">
-        <v>3.35766620923001</v>
+        <v>9.002562000000001</v>
       </c>
       <c r="I2">
-        <v>0.253261607709092</v>
+        <v>0.2697390900140935</v>
       </c>
       <c r="J2">
-        <v>0.253261607709092</v>
+        <v>0.213246908586601</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.0621151135608</v>
+        <v>10.0639455</v>
       </c>
       <c r="N2">
-        <v>10.0621151135608</v>
+        <v>20.127891</v>
       </c>
       <c r="O2">
-        <v>0.1992633942288312</v>
+        <v>0.1841073870690167</v>
       </c>
       <c r="P2">
-        <v>0.1992633942288312</v>
+        <v>0.1533044232183457</v>
       </c>
       <c r="Q2">
-        <v>33.78522391018569</v>
+        <v>45.3006466641855</v>
       </c>
       <c r="R2">
-        <v>33.78522391018569</v>
+        <v>181.202586656742</v>
       </c>
       <c r="S2">
-        <v>0.05046576757996438</v>
+        <v>0.04966095905286904</v>
       </c>
       <c r="T2">
-        <v>0.05046576757996438</v>
+        <v>0.03269169432396415</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.35766620923001</v>
+        <v>4.501281000000001</v>
       </c>
       <c r="H3">
-        <v>3.35766620923001</v>
+        <v>9.002562000000001</v>
       </c>
       <c r="I3">
-        <v>0.253261607709092</v>
+        <v>0.2697390900140935</v>
       </c>
       <c r="J3">
-        <v>0.253261607709092</v>
+        <v>0.213246908586601</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.25849539957401</v>
+        <v>5.556209333333332</v>
       </c>
       <c r="N3">
-        <v>5.25849539957401</v>
+        <v>16.668628</v>
       </c>
       <c r="O3">
-        <v>0.1041357239536693</v>
+        <v>0.1016439509105532</v>
       </c>
       <c r="P3">
-        <v>0.1041357239536693</v>
+        <v>0.1269568879015276</v>
       </c>
       <c r="Q3">
-        <v>17.65627231454111</v>
+        <v>25.010059504156</v>
       </c>
       <c r="R3">
-        <v>17.65627231454111</v>
+        <v>150.060357024936</v>
       </c>
       <c r="S3">
-        <v>0.02637358086845648</v>
+        <v>0.02741734682404982</v>
       </c>
       <c r="T3">
-        <v>0.02637358086845648</v>
+        <v>0.02707316386877641</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.35766620923001</v>
+        <v>4.501281000000001</v>
       </c>
       <c r="H4">
-        <v>3.35766620923001</v>
+        <v>9.002562000000001</v>
       </c>
       <c r="I4">
-        <v>0.253261607709092</v>
+        <v>0.2697390900140935</v>
       </c>
       <c r="J4">
-        <v>0.253261607709092</v>
+        <v>0.213246908586601</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.01262011233509</v>
+        <v>3.038619333333333</v>
       </c>
       <c r="N4">
-        <v>3.01262011233509</v>
+        <v>9.115857999999999</v>
       </c>
       <c r="O4">
-        <v>0.05965991268544488</v>
+        <v>0.05558776781505795</v>
       </c>
       <c r="P4">
-        <v>0.05965991268544488</v>
+        <v>0.06943108708360662</v>
       </c>
       <c r="Q4">
-        <v>10.11537275243425</v>
+        <v>13.677679471366</v>
       </c>
       <c r="R4">
-        <v>10.11537275243425</v>
+        <v>82.066076828196</v>
       </c>
       <c r="S4">
-        <v>0.01510956540249982</v>
+        <v>0.01499419390634845</v>
       </c>
       <c r="T4">
-        <v>0.01510956540249982</v>
+        <v>0.01480596468038619</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.35766620923001</v>
+        <v>4.501281000000001</v>
       </c>
       <c r="H5">
-        <v>3.35766620923001</v>
+        <v>9.002562000000001</v>
       </c>
       <c r="I5">
-        <v>0.253261607709092</v>
+        <v>0.2697390900140935</v>
       </c>
       <c r="J5">
-        <v>0.253261607709092</v>
+        <v>0.213246908586601</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.5750933366117</v>
+        <v>3.676304</v>
       </c>
       <c r="N5">
-        <v>3.5750933366117</v>
+        <v>11.028912</v>
       </c>
       <c r="O5">
-        <v>0.07079875601681765</v>
+        <v>0.06725341701337455</v>
       </c>
       <c r="P5">
-        <v>0.07079875601681765</v>
+        <v>0.08400189532454698</v>
       </c>
       <c r="Q5">
-        <v>12.00397009118447</v>
+        <v>16.548077345424</v>
       </c>
       <c r="R5">
-        <v>12.00397009118447</v>
+        <v>99.28846407254402</v>
       </c>
       <c r="S5">
-        <v>0.01793060677262298</v>
+        <v>0.01814087550552601</v>
       </c>
       <c r="T5">
-        <v>0.01793060677262298</v>
+        <v>0.01791314449337489</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.35766620923001</v>
+        <v>4.501281000000001</v>
       </c>
       <c r="H6">
-        <v>3.35766620923001</v>
+        <v>9.002562000000001</v>
       </c>
       <c r="I6">
-        <v>0.253261607709092</v>
+        <v>0.2697390900140935</v>
       </c>
       <c r="J6">
-        <v>0.253261607709092</v>
+        <v>0.213246908586601</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.68159340202098</v>
+        <v>9.695570333333334</v>
       </c>
       <c r="N6">
-        <v>8.68159340202098</v>
+        <v>29.086711</v>
       </c>
       <c r="O6">
-        <v>0.1719244660866474</v>
+        <v>0.1773684207862488</v>
       </c>
       <c r="P6">
-        <v>0.1719244660866474</v>
+        <v>0.2215394277112148</v>
       </c>
       <c r="Q6">
-        <v>29.14989280824005</v>
+        <v>43.64248652559701</v>
       </c>
       <c r="R6">
-        <v>29.14989280824005</v>
+        <v>261.854919153582</v>
       </c>
       <c r="S6">
-        <v>0.04354186668563157</v>
+        <v>0.04784319642011958</v>
       </c>
       <c r="T6">
-        <v>0.04354186668563157</v>
+        <v>0.04724259808946132</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.35766620923001</v>
+        <v>4.501281000000001</v>
       </c>
       <c r="H7">
-        <v>3.35766620923001</v>
+        <v>9.002562000000001</v>
       </c>
       <c r="I7">
-        <v>0.253261607709092</v>
+        <v>0.2697390900140935</v>
       </c>
       <c r="J7">
-        <v>0.253261607709092</v>
+        <v>0.213246908586601</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.9066384759812</v>
+        <v>22.6328045</v>
       </c>
       <c r="N7">
-        <v>19.9066384759812</v>
+        <v>45.265609</v>
       </c>
       <c r="O7">
-        <v>0.3942177470285897</v>
+        <v>0.4140390564057488</v>
       </c>
       <c r="P7">
-        <v>0.3942177470285897</v>
+        <v>0.3447662787607582</v>
       </c>
       <c r="Q7">
-        <v>66.83984735016006</v>
+        <v>101.8766128725645</v>
       </c>
       <c r="R7">
-        <v>66.83984735016006</v>
+        <v>407.506451490258</v>
       </c>
       <c r="S7">
-        <v>0.09984022039991673</v>
+        <v>0.1116825183051806</v>
       </c>
       <c r="T7">
-        <v>0.09984022039991673</v>
+        <v>0.073520343130638</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.88778707649194</v>
+        <v>2.087706</v>
       </c>
       <c r="H8">
-        <v>1.88778707649194</v>
+        <v>6.263118</v>
       </c>
       <c r="I8">
-        <v>0.1423917567179602</v>
+        <v>0.1251057013896629</v>
       </c>
       <c r="J8">
-        <v>0.1423917567179602</v>
+        <v>0.1483567179668515</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.0621151135608</v>
+        <v>10.0639455</v>
       </c>
       <c r="N8">
-        <v>10.0621151135608</v>
+        <v>20.127891</v>
       </c>
       <c r="O8">
-        <v>0.1992633942288312</v>
+        <v>0.1841073870690167</v>
       </c>
       <c r="P8">
-        <v>0.1992633942288312</v>
+        <v>0.1533044232183457</v>
       </c>
       <c r="Q8">
-        <v>18.99513087355431</v>
+        <v>21.010559404023</v>
       </c>
       <c r="R8">
-        <v>18.99513087355431</v>
+        <v>126.063356424138</v>
       </c>
       <c r="S8">
-        <v>0.02837346475382673</v>
+        <v>0.02303288379028748</v>
       </c>
       <c r="T8">
-        <v>0.02837346475382673</v>
+        <v>0.02274374107847496</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.88778707649194</v>
+        <v>2.087706</v>
       </c>
       <c r="H9">
-        <v>1.88778707649194</v>
+        <v>6.263118</v>
       </c>
       <c r="I9">
-        <v>0.1423917567179602</v>
+        <v>0.1251057013896629</v>
       </c>
       <c r="J9">
-        <v>0.1423917567179602</v>
+        <v>0.1483567179668515</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.25849539957401</v>
+        <v>5.556209333333332</v>
       </c>
       <c r="N9">
-        <v>5.25849539957401</v>
+        <v>16.668628</v>
       </c>
       <c r="O9">
-        <v>0.1041357239536693</v>
+        <v>0.1016439509105532</v>
       </c>
       <c r="P9">
-        <v>0.1041357239536693</v>
+        <v>0.1269568879015276</v>
       </c>
       <c r="Q9">
-        <v>9.926919657108137</v>
+        <v>11.599731562456</v>
       </c>
       <c r="R9">
-        <v>9.926919657108137</v>
+        <v>104.397584062104</v>
       </c>
       <c r="S9">
-        <v>0.01482806867085954</v>
+        <v>0.01271623777068122</v>
       </c>
       <c r="T9">
-        <v>0.01482806867085954</v>
+        <v>0.01883490721235612</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.88778707649194</v>
+        <v>2.087706</v>
       </c>
       <c r="H10">
-        <v>1.88778707649194</v>
+        <v>6.263118</v>
       </c>
       <c r="I10">
-        <v>0.1423917567179602</v>
+        <v>0.1251057013896629</v>
       </c>
       <c r="J10">
-        <v>0.1423917567179602</v>
+        <v>0.1483567179668515</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.01262011233509</v>
+        <v>3.038619333333333</v>
       </c>
       <c r="N10">
-        <v>3.01262011233509</v>
+        <v>9.115857999999999</v>
       </c>
       <c r="O10">
-        <v>0.05965991268544488</v>
+        <v>0.05558776781505795</v>
       </c>
       <c r="P10">
-        <v>0.05965991268544488</v>
+        <v>0.06943108708360662</v>
       </c>
       <c r="Q10">
-        <v>5.687185314445879</v>
+        <v>6.343743813916</v>
       </c>
       <c r="R10">
-        <v>5.687185314445879</v>
+        <v>57.093694325244</v>
       </c>
       <c r="S10">
-        <v>0.008495079772920617</v>
+        <v>0.006954346681188553</v>
       </c>
       <c r="T10">
-        <v>0.008495079772920617</v>
+        <v>0.01030056820459454</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.88778707649194</v>
+        <v>2.087706</v>
       </c>
       <c r="H11">
-        <v>1.88778707649194</v>
+        <v>6.263118</v>
       </c>
       <c r="I11">
-        <v>0.1423917567179602</v>
+        <v>0.1251057013896629</v>
       </c>
       <c r="J11">
-        <v>0.1423917567179602</v>
+        <v>0.1483567179668515</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.5750933366117</v>
+        <v>3.676304</v>
       </c>
       <c r="N11">
-        <v>3.5750933366117</v>
+        <v>11.028912</v>
       </c>
       <c r="O11">
-        <v>0.07079875601681765</v>
+        <v>0.06725341701337455</v>
       </c>
       <c r="P11">
-        <v>0.07079875601681765</v>
+        <v>0.08400189532454698</v>
       </c>
       <c r="Q11">
-        <v>6.749014998108017</v>
+        <v>7.675041918624001</v>
       </c>
       <c r="R11">
-        <v>6.749014998108017</v>
+        <v>69.07537726761601</v>
       </c>
       <c r="S11">
-        <v>0.01008115924268092</v>
+        <v>0.008413785906309708</v>
       </c>
       <c r="T11">
-        <v>0.01008115924268092</v>
+        <v>0.0124622454933448</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.88778707649194</v>
+        <v>2.087706</v>
       </c>
       <c r="H12">
-        <v>1.88778707649194</v>
+        <v>6.263118</v>
       </c>
       <c r="I12">
-        <v>0.1423917567179602</v>
+        <v>0.1251057013896629</v>
       </c>
       <c r="J12">
-        <v>0.1423917567179602</v>
+        <v>0.1483567179668515</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.68159340202098</v>
+        <v>9.695570333333334</v>
       </c>
       <c r="N12">
-        <v>8.68159340202098</v>
+        <v>29.086711</v>
       </c>
       <c r="O12">
-        <v>0.1719244660866474</v>
+        <v>0.1773684207862488</v>
       </c>
       <c r="P12">
-        <v>0.1719244660866474</v>
+        <v>0.2215394277112148</v>
       </c>
       <c r="Q12">
-        <v>16.3889998276929</v>
+        <v>20.241500358322</v>
       </c>
       <c r="R12">
-        <v>16.3889998276929</v>
+        <v>182.173503224898</v>
       </c>
       <c r="S12">
-        <v>0.0244806267488751</v>
+        <v>0.02218980068684052</v>
       </c>
       <c r="T12">
-        <v>0.0244806267488751</v>
+        <v>0.03286686239549039</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.88778707649194</v>
+        <v>2.087706</v>
       </c>
       <c r="H13">
-        <v>1.88778707649194</v>
+        <v>6.263118</v>
       </c>
       <c r="I13">
-        <v>0.1423917567179602</v>
+        <v>0.1251057013896629</v>
       </c>
       <c r="J13">
-        <v>0.1423917567179602</v>
+        <v>0.1483567179668515</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.9066384759812</v>
+        <v>22.6328045</v>
       </c>
       <c r="N13">
-        <v>19.9066384759812</v>
+        <v>45.265609</v>
       </c>
       <c r="O13">
-        <v>0.3942177470285897</v>
+        <v>0.4140390564057488</v>
       </c>
       <c r="P13">
-        <v>0.3942177470285897</v>
+        <v>0.3447662787607582</v>
       </c>
       <c r="Q13">
-        <v>37.57949485135452</v>
+        <v>47.250641751477</v>
       </c>
       <c r="R13">
-        <v>37.57949485135452</v>
+        <v>283.503850508862</v>
       </c>
       <c r="S13">
-        <v>0.05613335752879733</v>
+        <v>0.0517986465543554</v>
       </c>
       <c r="T13">
-        <v>0.05613335752879733</v>
+        <v>0.05114839358259073</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>4.7871415384493</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H14">
-        <v>4.7871415384493</v>
+        <v>0.043031</v>
       </c>
       <c r="I14">
-        <v>0.3610838858924802</v>
+        <v>0.0008595436708199626</v>
       </c>
       <c r="J14">
-        <v>0.3610838858924802</v>
+        <v>0.001019290700068494</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.0621151135608</v>
+        <v>10.0639455</v>
       </c>
       <c r="N14">
-        <v>10.0621151135608</v>
+        <v>20.127891</v>
       </c>
       <c r="O14">
-        <v>0.1992633942288312</v>
+        <v>0.1841073870690167</v>
       </c>
       <c r="P14">
-        <v>0.1992633942288312</v>
+        <v>0.1533044232183457</v>
       </c>
       <c r="Q14">
-        <v>48.16876922478541</v>
+        <v>0.1443538796035</v>
       </c>
       <c r="R14">
-        <v>48.16876922478541</v>
+        <v>0.8661232776209999</v>
       </c>
       <c r="S14">
-        <v>0.07195080070427158</v>
+        <v>0.0001582483393063743</v>
       </c>
       <c r="T14">
-        <v>0.07195080070427158</v>
+        <v>0.0001562617728658243</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>4.7871415384493</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H15">
-        <v>4.7871415384493</v>
+        <v>0.043031</v>
       </c>
       <c r="I15">
-        <v>0.3610838858924802</v>
+        <v>0.0008595436708199626</v>
       </c>
       <c r="J15">
-        <v>0.3610838858924802</v>
+        <v>0.001019290700068494</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.25849539957401</v>
+        <v>5.556209333333332</v>
       </c>
       <c r="N15">
-        <v>5.25849539957401</v>
+        <v>16.668628</v>
       </c>
       <c r="O15">
-        <v>0.1041357239536693</v>
+        <v>0.1016439509105532</v>
       </c>
       <c r="P15">
-        <v>0.1041357239536693</v>
+        <v>0.1269568879015276</v>
       </c>
       <c r="Q15">
-        <v>25.1731617570453</v>
+        <v>0.07969641460755554</v>
       </c>
       <c r="R15">
-        <v>25.1731617570453</v>
+        <v>0.7172677314679999</v>
       </c>
       <c r="S15">
-        <v>0.03760173186541754</v>
+        <v>8.736741468230098E-05</v>
       </c>
       <c r="T15">
-        <v>0.03760173186541754</v>
+        <v>0.0001294059751476655</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>4.7871415384493</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H16">
-        <v>4.7871415384493</v>
+        <v>0.043031</v>
       </c>
       <c r="I16">
-        <v>0.3610838858924802</v>
+        <v>0.0008595436708199626</v>
       </c>
       <c r="J16">
-        <v>0.3610838858924802</v>
+        <v>0.001019290700068494</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.01262011233509</v>
+        <v>3.038619333333333</v>
       </c>
       <c r="N16">
-        <v>3.01262011233509</v>
+        <v>9.115857999999999</v>
       </c>
       <c r="O16">
-        <v>0.05965991268544488</v>
+        <v>0.05558776781505795</v>
       </c>
       <c r="P16">
-        <v>0.05965991268544488</v>
+        <v>0.06943108708360662</v>
       </c>
       <c r="Q16">
-        <v>14.42183887932711</v>
+        <v>0.04358494284422221</v>
       </c>
       <c r="R16">
-        <v>14.42183887932711</v>
+        <v>0.392264485598</v>
       </c>
       <c r="S16">
-        <v>0.02154223310446652</v>
+        <v>4.778011400044268E-05</v>
       </c>
       <c r="T16">
-        <v>0.02154223310446652</v>
+        <v>7.077046135996599E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>4.7871415384493</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H17">
-        <v>4.7871415384493</v>
+        <v>0.043031</v>
       </c>
       <c r="I17">
-        <v>0.3610838858924802</v>
+        <v>0.0008595436708199626</v>
       </c>
       <c r="J17">
-        <v>0.3610838858924802</v>
+        <v>0.001019290700068494</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.5750933366117</v>
+        <v>3.676304</v>
       </c>
       <c r="N17">
-        <v>3.5750933366117</v>
+        <v>11.028912</v>
       </c>
       <c r="O17">
-        <v>0.07079875601681765</v>
+        <v>0.06725341701337455</v>
       </c>
       <c r="P17">
-        <v>0.07079875601681765</v>
+        <v>0.08400189532454698</v>
       </c>
       <c r="Q17">
-        <v>17.11447781552718</v>
+        <v>0.05273167914133333</v>
       </c>
       <c r="R17">
-        <v>17.11447781552718</v>
+        <v>0.474585112272</v>
       </c>
       <c r="S17">
-        <v>0.02556428993890613</v>
+        <v>5.780724893486168E-05</v>
       </c>
       <c r="T17">
-        <v>0.02556428993890613</v>
+        <v>8.562235069243789E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>4.7871415384493</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H18">
-        <v>4.7871415384493</v>
+        <v>0.043031</v>
       </c>
       <c r="I18">
-        <v>0.3610838858924802</v>
+        <v>0.0008595436708199626</v>
       </c>
       <c r="J18">
-        <v>0.3610838858924802</v>
+        <v>0.001019290700068494</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.68159340202098</v>
+        <v>9.695570333333334</v>
       </c>
       <c r="N18">
-        <v>8.68159340202098</v>
+        <v>29.086711</v>
       </c>
       <c r="O18">
-        <v>0.1719244660866474</v>
+        <v>0.1773684207862488</v>
       </c>
       <c r="P18">
-        <v>0.1719244660866474</v>
+        <v>0.2215394277112148</v>
       </c>
       <c r="Q18">
-        <v>41.56001639474201</v>
+        <v>0.1390700290045556</v>
       </c>
       <c r="R18">
-        <v>41.56001639474201</v>
+        <v>1.251630261041</v>
       </c>
       <c r="S18">
-        <v>0.06207915429455657</v>
+        <v>0.0001524559034901521</v>
       </c>
       <c r="T18">
-        <v>0.06207915429455657</v>
+        <v>0.0002258130783645377</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>4.7871415384493</v>
+        <v>0.01434366666666667</v>
       </c>
       <c r="H19">
-        <v>4.7871415384493</v>
+        <v>0.043031</v>
       </c>
       <c r="I19">
-        <v>0.3610838858924802</v>
+        <v>0.0008595436708199626</v>
       </c>
       <c r="J19">
-        <v>0.3610838858924802</v>
+        <v>0.001019290700068494</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.9066384759812</v>
+        <v>22.6328045</v>
       </c>
       <c r="N19">
-        <v>19.9066384759812</v>
+        <v>45.265609</v>
       </c>
       <c r="O19">
-        <v>0.3942177470285897</v>
+        <v>0.4140390564057488</v>
       </c>
       <c r="P19">
-        <v>0.3942177470285897</v>
+        <v>0.3447662787607582</v>
       </c>
       <c r="Q19">
-        <v>95.29589593926268</v>
+        <v>0.3246374034798333</v>
       </c>
       <c r="R19">
-        <v>95.29589593926268</v>
+        <v>1.947824420879</v>
       </c>
       <c r="S19">
-        <v>0.1423456759848619</v>
+        <v>0.0003558846504058309</v>
       </c>
       <c r="T19">
-        <v>0.1423456759848619</v>
+        <v>0.000351417061638063</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>3.22510435732799</v>
+        <v>0.3984833333333334</v>
       </c>
       <c r="H20">
-        <v>3.22510435732799</v>
+        <v>1.19545</v>
       </c>
       <c r="I20">
-        <v>0.2432627496804676</v>
+        <v>0.02387909835424983</v>
       </c>
       <c r="J20">
-        <v>0.2432627496804676</v>
+        <v>0.02831705206471804</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.0621151135608</v>
+        <v>10.0639455</v>
       </c>
       <c r="N20">
-        <v>10.0621151135608</v>
+        <v>20.127891</v>
       </c>
       <c r="O20">
-        <v>0.1992633942288312</v>
+        <v>0.1841073870690167</v>
       </c>
       <c r="P20">
-        <v>0.1992633942288312</v>
+        <v>0.1533044232183457</v>
       </c>
       <c r="Q20">
-        <v>32.45137129668075</v>
+        <v>4.010314549325</v>
       </c>
       <c r="R20">
-        <v>32.45137129668075</v>
+        <v>24.06188729595</v>
       </c>
       <c r="S20">
-        <v>0.04847336119076849</v>
+        <v>0.004396318403564992</v>
       </c>
       <c r="T20">
-        <v>0.04847336119076849</v>
+        <v>0.004341129334025463</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>3.22510435732799</v>
+        <v>0.3984833333333334</v>
       </c>
       <c r="H21">
-        <v>3.22510435732799</v>
+        <v>1.19545</v>
       </c>
       <c r="I21">
-        <v>0.2432627496804676</v>
+        <v>0.02387909835424983</v>
       </c>
       <c r="J21">
-        <v>0.2432627496804676</v>
+        <v>0.02831705206471804</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.25849539957401</v>
+        <v>5.556209333333332</v>
       </c>
       <c r="N21">
-        <v>5.25849539957401</v>
+        <v>16.668628</v>
       </c>
       <c r="O21">
-        <v>0.1041357239536693</v>
+        <v>0.1016439509105532</v>
       </c>
       <c r="P21">
-        <v>0.1041357239536693</v>
+        <v>0.1269568879015276</v>
       </c>
       <c r="Q21">
-        <v>16.95919642615533</v>
+        <v>2.214056815844444</v>
       </c>
       <c r="R21">
-        <v>16.95919642615533</v>
+        <v>19.9265113426</v>
       </c>
       <c r="S21">
-        <v>0.02533234254893572</v>
+        <v>0.002427165900907642</v>
       </c>
       <c r="T21">
-        <v>0.02533234254893572</v>
+        <v>0.003595044804682129</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>3.22510435732799</v>
+        <v>0.3984833333333334</v>
       </c>
       <c r="H22">
-        <v>3.22510435732799</v>
+        <v>1.19545</v>
       </c>
       <c r="I22">
-        <v>0.2432627496804676</v>
+        <v>0.02387909835424983</v>
       </c>
       <c r="J22">
-        <v>0.2432627496804676</v>
+        <v>0.02831705206471804</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.01262011233509</v>
+        <v>3.038619333333333</v>
       </c>
       <c r="N22">
-        <v>3.01262011233509</v>
+        <v>9.115857999999999</v>
       </c>
       <c r="O22">
-        <v>0.05965991268544488</v>
+        <v>0.05558776781505795</v>
       </c>
       <c r="P22">
-        <v>0.05965991268544488</v>
+        <v>0.06943108708360662</v>
       </c>
       <c r="Q22">
-        <v>9.716014251265838</v>
+        <v>1.210839160677778</v>
       </c>
       <c r="R22">
-        <v>9.716014251265838</v>
+        <v>10.8975524461</v>
       </c>
       <c r="S22">
-        <v>0.01451303440555793</v>
+        <v>0.001327385774948972</v>
       </c>
       <c r="T22">
-        <v>0.01451303440555793</v>
+        <v>0.00196608370785646</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>3.22510435732799</v>
+        <v>0.3984833333333334</v>
       </c>
       <c r="H23">
-        <v>3.22510435732799</v>
+        <v>1.19545</v>
       </c>
       <c r="I23">
-        <v>0.2432627496804676</v>
+        <v>0.02387909835424983</v>
       </c>
       <c r="J23">
-        <v>0.2432627496804676</v>
+        <v>0.02831705206471804</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.5750933366117</v>
+        <v>3.676304</v>
       </c>
       <c r="N23">
-        <v>3.5750933366117</v>
+        <v>11.028912</v>
       </c>
       <c r="O23">
-        <v>0.07079875601681765</v>
+        <v>0.06725341701337455</v>
       </c>
       <c r="P23">
-        <v>0.07079875601681765</v>
+        <v>0.08400189532454698</v>
       </c>
       <c r="Q23">
-        <v>11.53004909776066</v>
+        <v>1.464945872266667</v>
       </c>
       <c r="R23">
-        <v>11.53004909776066</v>
+        <v>13.1845128504</v>
       </c>
       <c r="S23">
-        <v>0.01722270006260761</v>
+        <v>0.00160595095952175</v>
       </c>
       <c r="T23">
-        <v>0.01722270006260761</v>
+        <v>0.002378686043440191</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>3.22510435732799</v>
+        <v>0.3984833333333334</v>
       </c>
       <c r="H24">
-        <v>3.22510435732799</v>
+        <v>1.19545</v>
       </c>
       <c r="I24">
-        <v>0.2432627496804676</v>
+        <v>0.02387909835424983</v>
       </c>
       <c r="J24">
-        <v>0.2432627496804676</v>
+        <v>0.02831705206471804</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.68159340202098</v>
+        <v>9.695570333333334</v>
       </c>
       <c r="N24">
-        <v>8.68159340202098</v>
+        <v>29.086711</v>
       </c>
       <c r="O24">
-        <v>0.1719244660866474</v>
+        <v>0.1773684207862488</v>
       </c>
       <c r="P24">
-        <v>0.1719244660866474</v>
+        <v>0.2215394277112148</v>
       </c>
       <c r="Q24">
-        <v>27.99904470940779</v>
+        <v>3.863523184994445</v>
       </c>
       <c r="R24">
-        <v>27.99904470940779</v>
+        <v>34.77170866495</v>
       </c>
       <c r="S24">
-        <v>0.04182281835758415</v>
+        <v>0.004235397964892806</v>
       </c>
       <c r="T24">
-        <v>0.04182281835758415</v>
+        <v>0.006273343508886307</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.3984833333333334</v>
+      </c>
+      <c r="H25">
+        <v>1.19545</v>
+      </c>
+      <c r="I25">
+        <v>0.02387909835424983</v>
+      </c>
+      <c r="J25">
+        <v>0.02831705206471804</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>22.6328045</v>
+      </c>
+      <c r="N25">
+        <v>45.265609</v>
+      </c>
+      <c r="O25">
+        <v>0.4140390564057488</v>
+      </c>
+      <c r="P25">
+        <v>0.3447662787607582</v>
+      </c>
+      <c r="Q25">
+        <v>9.018795379841666</v>
+      </c>
+      <c r="R25">
+        <v>54.11277227905001</v>
+      </c>
+      <c r="S25">
+        <v>0.00988687935041367</v>
+      </c>
+      <c r="T25">
+        <v>0.009762764665827482</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>6.341005333333332</v>
+      </c>
+      <c r="H26">
+        <v>19.023016</v>
+      </c>
+      <c r="I26">
+        <v>0.3799844996097436</v>
+      </c>
+      <c r="J26">
+        <v>0.4506049893345302</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>10.0639455</v>
+      </c>
+      <c r="N26">
+        <v>20.127891</v>
+      </c>
+      <c r="O26">
+        <v>0.1841073870690167</v>
+      </c>
+      <c r="P26">
+        <v>0.1533044232183457</v>
+      </c>
+      <c r="Q26">
+        <v>63.81553208987599</v>
+      </c>
+      <c r="R26">
+        <v>382.8931925392559</v>
+      </c>
+      <c r="S26">
+        <v>0.06995795334987769</v>
+      </c>
+      <c r="T26">
+        <v>0.06907973798923896</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>6.341005333333332</v>
+      </c>
+      <c r="H27">
+        <v>19.023016</v>
+      </c>
+      <c r="I27">
+        <v>0.3799844996097436</v>
+      </c>
+      <c r="J27">
+        <v>0.4506049893345302</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>5.556209333333332</v>
+      </c>
+      <c r="N27">
+        <v>16.668628</v>
+      </c>
+      <c r="O27">
+        <v>0.1016439509105532</v>
+      </c>
+      <c r="P27">
+        <v>0.1269568879015276</v>
+      </c>
+      <c r="Q27">
+        <v>35.2319530157831</v>
+      </c>
+      <c r="R27">
+        <v>317.087577142048</v>
+      </c>
+      <c r="S27">
+        <v>0.03862312582510391</v>
+      </c>
+      <c r="T27">
+        <v>0.057207407118813</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>6.341005333333332</v>
+      </c>
+      <c r="H28">
+        <v>19.023016</v>
+      </c>
+      <c r="I28">
+        <v>0.3799844996097436</v>
+      </c>
+      <c r="J28">
+        <v>0.4506049893345302</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>3.038619333333333</v>
+      </c>
+      <c r="N28">
+        <v>9.115857999999999</v>
+      </c>
+      <c r="O28">
+        <v>0.05558776781505795</v>
+      </c>
+      <c r="P28">
+        <v>0.06943108708360662</v>
+      </c>
+      <c r="Q28">
+        <v>19.26790139863644</v>
+      </c>
+      <c r="R28">
+        <v>173.411112587728</v>
+      </c>
+      <c r="S28">
+        <v>0.02112249013762741</v>
+      </c>
+      <c r="T28">
+        <v>0.0312859942547934</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>6.341005333333332</v>
+      </c>
+      <c r="H29">
+        <v>19.023016</v>
+      </c>
+      <c r="I29">
+        <v>0.3799844996097436</v>
+      </c>
+      <c r="J29">
+        <v>0.4506049893345302</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>3.676304</v>
+      </c>
+      <c r="N29">
+        <v>11.028912</v>
+      </c>
+      <c r="O29">
+        <v>0.06725341701337455</v>
+      </c>
+      <c r="P29">
+        <v>0.08400189532454698</v>
+      </c>
+      <c r="Q29">
+        <v>23.31146327095466</v>
+      </c>
+      <c r="R29">
+        <v>209.803169438592</v>
+      </c>
+      <c r="S29">
+        <v>0.02555525601087254</v>
+      </c>
+      <c r="T29">
+        <v>0.03785167314679781</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>6.341005333333332</v>
+      </c>
+      <c r="H30">
+        <v>19.023016</v>
+      </c>
+      <c r="I30">
+        <v>0.3799844996097436</v>
+      </c>
+      <c r="J30">
+        <v>0.4506049893345302</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>9.695570333333334</v>
+      </c>
+      <c r="N30">
+        <v>29.086711</v>
+      </c>
+      <c r="O30">
+        <v>0.1773684207862488</v>
+      </c>
+      <c r="P30">
+        <v>0.2215394277112148</v>
+      </c>
+      <c r="Q30">
+        <v>61.47966319337511</v>
+      </c>
+      <c r="R30">
+        <v>553.316968740376</v>
+      </c>
+      <c r="S30">
+        <v>0.06739725061903321</v>
+      </c>
+      <c r="T30">
+        <v>0.09982677146098987</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>6.341005333333332</v>
+      </c>
+      <c r="H31">
+        <v>19.023016</v>
+      </c>
+      <c r="I31">
+        <v>0.3799844996097436</v>
+      </c>
+      <c r="J31">
+        <v>0.4506049893345302</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>22.6328045</v>
+      </c>
+      <c r="N31">
+        <v>45.265609</v>
+      </c>
+      <c r="O31">
+        <v>0.4140390564057488</v>
+      </c>
+      <c r="P31">
+        <v>0.3447662787607582</v>
+      </c>
+      <c r="Q31">
+        <v>143.5147340427906</v>
+      </c>
+      <c r="R31">
+        <v>861.0884042567438</v>
+      </c>
+      <c r="S31">
+        <v>0.1573284236672289</v>
+      </c>
+      <c r="T31">
+        <v>0.1553534053638971</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>3.3447175</v>
+      </c>
+      <c r="H32">
+        <v>6.689435</v>
+      </c>
+      <c r="I32">
+        <v>0.2004320669614302</v>
+      </c>
+      <c r="J32">
+        <v>0.1584550413472308</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>10.0639455</v>
+      </c>
+      <c r="N32">
+        <v>20.127891</v>
+      </c>
+      <c r="O32">
+        <v>0.1841073870690167</v>
+      </c>
+      <c r="P32">
+        <v>0.1533044232183457</v>
+      </c>
+      <c r="Q32">
+        <v>33.66105463289625</v>
+      </c>
+      <c r="R32">
+        <v>134.644218531585</v>
+      </c>
+      <c r="S32">
+        <v>0.0369010241331111</v>
+      </c>
+      <c r="T32">
+        <v>0.02429185871977633</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>3.3447175</v>
+      </c>
+      <c r="H33">
+        <v>6.689435</v>
+      </c>
+      <c r="I33">
+        <v>0.2004320669614302</v>
+      </c>
+      <c r="J33">
+        <v>0.1584550413472308</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>5.556209333333332</v>
+      </c>
+      <c r="N33">
+        <v>16.668628</v>
+      </c>
+      <c r="O33">
+        <v>0.1016439509105532</v>
+      </c>
+      <c r="P33">
+        <v>0.1269568879015276</v>
+      </c>
+      <c r="Q33">
+        <v>18.58395059086333</v>
+      </c>
+      <c r="R33">
+        <v>111.50370354518</v>
+      </c>
+      <c r="S33">
+        <v>0.02037270717512833</v>
+      </c>
+      <c r="T33">
+        <v>0.0201169589217523</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>3.3447175</v>
+      </c>
+      <c r="H34">
+        <v>6.689435</v>
+      </c>
+      <c r="I34">
+        <v>0.2004320669614302</v>
+      </c>
+      <c r="J34">
+        <v>0.1584550413472308</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>3.038619333333333</v>
+      </c>
+      <c r="N34">
+        <v>9.115857999999999</v>
+      </c>
+      <c r="O34">
+        <v>0.05558776781505795</v>
+      </c>
+      <c r="P34">
+        <v>0.06943108708360662</v>
+      </c>
+      <c r="Q34">
+        <v>10.16332326003833</v>
+      </c>
+      <c r="R34">
+        <v>60.97993956022999</v>
+      </c>
+      <c r="S34">
+        <v>0.01114157120094413</v>
+      </c>
+      <c r="T34">
+        <v>0.01100170577461607</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>3.22510435732799</v>
-      </c>
-      <c r="H25">
-        <v>3.22510435732799</v>
-      </c>
-      <c r="I25">
-        <v>0.2432627496804676</v>
-      </c>
-      <c r="J25">
-        <v>0.2432627496804676</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>19.9066384759812</v>
-      </c>
-      <c r="N25">
-        <v>19.9066384759812</v>
-      </c>
-      <c r="O25">
-        <v>0.3942177470285897</v>
-      </c>
-      <c r="P25">
-        <v>0.3942177470285897</v>
-      </c>
-      <c r="Q25">
-        <v>64.20098648863998</v>
-      </c>
-      <c r="R25">
-        <v>64.20098648863998</v>
-      </c>
-      <c r="S25">
-        <v>0.09589849311501372</v>
-      </c>
-      <c r="T25">
-        <v>0.09589849311501372</v>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>3.3447175</v>
+      </c>
+      <c r="H35">
+        <v>6.689435</v>
+      </c>
+      <c r="I35">
+        <v>0.2004320669614302</v>
+      </c>
+      <c r="J35">
+        <v>0.1584550413472308</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>3.676304</v>
+      </c>
+      <c r="N35">
+        <v>11.028912</v>
+      </c>
+      <c r="O35">
+        <v>0.06725341701337455</v>
+      </c>
+      <c r="P35">
+        <v>0.08400189532454698</v>
+      </c>
+      <c r="Q35">
+        <v>12.29619832412</v>
+      </c>
+      <c r="R35">
+        <v>73.77718994471999</v>
+      </c>
+      <c r="S35">
+        <v>0.01347974138220968</v>
+      </c>
+      <c r="T35">
+        <v>0.01331052379689684</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>3.3447175</v>
+      </c>
+      <c r="H36">
+        <v>6.689435</v>
+      </c>
+      <c r="I36">
+        <v>0.2004320669614302</v>
+      </c>
+      <c r="J36">
+        <v>0.1584550413472308</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>9.695570333333334</v>
+      </c>
+      <c r="N36">
+        <v>29.086711</v>
+      </c>
+      <c r="O36">
+        <v>0.1773684207862488</v>
+      </c>
+      <c r="P36">
+        <v>0.2215394277112148</v>
+      </c>
+      <c r="Q36">
+        <v>32.42894376638083</v>
+      </c>
+      <c r="R36">
+        <v>194.573662598285</v>
+      </c>
+      <c r="S36">
+        <v>0.03555031919187256</v>
+      </c>
+      <c r="T36">
+        <v>0.03510403917802239</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>3.3447175</v>
+      </c>
+      <c r="H37">
+        <v>6.689435</v>
+      </c>
+      <c r="I37">
+        <v>0.2004320669614302</v>
+      </c>
+      <c r="J37">
+        <v>0.1584550413472308</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>22.6328045</v>
+      </c>
+      <c r="N37">
+        <v>45.265609</v>
+      </c>
+      <c r="O37">
+        <v>0.4140390564057488</v>
+      </c>
+      <c r="P37">
+        <v>0.3447662787607582</v>
+      </c>
+      <c r="Q37">
+        <v>75.70033728522874</v>
+      </c>
+      <c r="R37">
+        <v>302.801349140915</v>
+      </c>
+      <c r="S37">
+        <v>0.08298670387816444</v>
+      </c>
+      <c r="T37">
+        <v>0.05462995495616684</v>
       </c>
     </row>
   </sheetData>
